--- a/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/CCDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-09-25-2024/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A1BE9-E570-4A4E-B25C-332C06F0A444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6207A-D4F7-8543-93E0-EC7F515578C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41180" yWindow="220" windowWidth="30240" windowHeight="17820" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-42460" yWindow="-2660" windowWidth="30240" windowHeight="25920" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,203 +65,296 @@
     <t>DiagnosisTab</t>
   </si>
   <si>
+    <t>StudiesTab</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002504_Sex-Male_TSVData.xlsx</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002504_Sex-Male_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant ID",
+    std.study AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+    COALESCE(CAST(syn.synonym_id AS INT), '') AS "Synonym Participant ID"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_publication pub ON std.id = pub."study.id"
+LEFT JOIN 
+    df_follow_up flw ON prt.id = flw."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+LEFT JOIN 
+    df_study_admin adm ON std.id = adm."study.id"
+LEFT JOIN 
+    df_study_personnel per ON std.id = per."study.id"
+LEFT JOIN 
+    df_study_funding fund ON std.id = fund."study.id"
+LEFT JOIN 
+    df_methylation_array_file maf ON smp.id = maf."sample.id"
+LEFT JOIN 
+    df_synonym syn ON prt.id = syn."participant.id"
+LEFT JOIN 
+    df_treatment trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+WHERE 
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male'
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
     <t>SELECT
-    p.participant_id AS "Participant ID",
-    st.study_id AS "Study ID",
-    COALESCE(p.sex_at_birth, '') AS "Sex",
-    COALESCE(p.race, '') AS "Race",
-    COALESCE(p.ethnicity, '') AS "Ethnicity",
-    COALESCE(CAST(p.alternate_participant_id AS INT), '') AS "Alternate ID"
+    COUNT(DISTINCT std.study) AS "Studies",
+    COUNT(DISTINCT prt.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    (COUNT(DISTINCT seq.id) + COUNT(DISTINCT maf.id)) AS "Files"
 FROM 
-    df_participant p
-JOIN 
-    df_study st ON p."study.id" = st.id
-LEFT JOIN 
-    df_sample smp ON smp."participant.id" = p.participant_id
-LEFT JOIN 
-    df_diagnosis diag ON diag."participant.id" = p.participant_id
-LEFT JOIN 
-    df_publication pub ON pub."study.id" = st.study_id
-LEFT JOIN 
-    df_sequencing_file sqf ON sqf."sample.id" = smp.sample_id
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_publication pub ON std.id = pub."study.id"
+LEFT JOIN 
+    df_follow_up flw ON prt.id = flw."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+LEFT JOIN 
+    df_study_admin adm ON std.id = adm."study.id"
+LEFT JOIN 
+    df_study_personnel per ON std.id = per."study.id"
+LEFT JOIN 
+    df_study_funding fund ON std.id = fund."study.id"
+LEFT JOIN 
+    df_methylation_array_file maf ON smp.id = maf."sample.id"
+LEFT JOIN 
+    df_synonym syn ON prt.id = syn."participant.id"
+LEFT JOIN 
+    df_treatment trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
 WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male'
-ORDER BY 
-    p.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>StudiesTab</t>
-  </si>
-  <si>
-    <t>SELECT
-    st.study_short_title AS "Study Short Title",
-    st.study_id AS "Study ID",
-    diag.diagnosis_classification AS "Diagnosis (Top 5)",
-    COUNT(diag.anatomic_site) AS "Diagnosis Anatomic Site (Top 5)",
-    COUNT(DISTINCT p.participant_id) AS "Number of Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Number of Samples",
-    COUNT(DISTINCT sqf.sequencing_file_id) AS "Number of Files",
-    GROUP_CONCAT(DISTINCT sqf.file_type) AS "File Type (Top 5)",
-    GROUP_CONCAT(DISTINCT pub.pubmed_id) AS "PubMed ID",
-    sp.personnel_name AS "Principal Investigator(s)",
-    sf.grant_id AS "Grant ID"
-FROM 
-    df_study st
-JOIN 
-    df_participant p ON p."study.id" = st.id
-LEFT JOIN 
-    df_sample smp ON smp."participant.id" = p.participant_id
-LEFT JOIN 
-    df_diagnosis diag ON diag."participant.id" = p.participant_id
-LEFT JOIN 
-    df_publication pub ON pub."study.id" = st.study_id
-LEFT JOIN 
-    df_sequencing_file sqf ON sqf."sample.id" = smp.sample_id
-LEFT JOIN 
-    df_study_personnel sp ON sp."study.id" = st.study_id
-LEFT JOIN 
-    df_study_funding sf ON sf."study.id" = st.study_id
-WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male'
-GROUP BY 
-    st.study_short_title, st.study_id, sf.grant_id
-ORDER BY 
-    st.study_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002504_Sex-Male_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002504_Sex-Male_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    p.participant_id AS "Participant ID",
-    st.study_id AS "Study ID",
-    COALESCE(diag.diagnosis_classification, '') AS "Diagnosis",
-    COALESCE(diag.anatomic_site, '') AS "Diagnosis Anatomic Site",
-    COALESCE(diag.diagnosis_classification_system, '') AS "Diagnosis Classification System",
-    COALESCE(diag.diagnosis_verification_status, '') AS "Diagnosis Verification Status",
-    COALESCE(diag.diagnosis_basis, '') AS "Diagnosis Basis",
-    COALESCE(diag.diagnosis_comment, '') AS "Diagnosis Comment",
-    COALESCE(diag.disease_phase, '') AS "Disease Phase",
-    COALESCE(CASE WHEN diag.age_at_diagnosis = -999 THEN 'Not Reported' ELSE diag.age_at_diagnosis END, 0) AS "Age at Diagnosis (days)",
-    COALESCE(fu.vital_status, '') AS "Vital Status"
-FROM 
-    df_participant p
-JOIN 
-    df_study st ON p."study.id" = st.id
-LEFT JOIN 
-    df_diagnosis diag ON diag."participant.id" = p.id
-LEFT JOIN 
-    df_follow_up fu ON fu."participant.id" = p.id
-WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male'
-ORDER BY 
-    p.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    p.participant_id AS "Participant ID",
-    st.study_id AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(diag.diagnosis_classification, '') AS "Diagnosis",
-    COALESCE(diag.diagnosis_classification_system, '') AS "Diagnosis Classification System",
-    COALESCE(diag.diagnosis_verification_status, '') AS "Diagnosis Verification Status",
-    COALESCE(diag.diagnosis_basis, '') AS "Diagnosis Basis",
-    COALESCE(diag.diagnosis_comment, '') AS "Diagnosis Comment",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification"
-FROM 
-    df_participant p
-JOIN 
-    df_study st ON p."study.id" = st.id
-LEFT JOIN 
-    df_sample smp ON smp."participant.id" = p.id
-LEFT JOIN 
-    df_diagnosis diag ON diag."participant.id" = p.id
-LEFT JOIN 
-    df_follow_up fu ON fu."participant.id" = p.id
-LEFT JOIN 
-    df_publication pub ON pub."study.id" = st.study_id
-LEFT JOIN 
-    df_sequencing_file sqf ON sqf."sample.id" = smp.sample_id
-WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male' AND smp.sample_id IS NOT NULL
-ORDER BY 
-    smp.sample_id ASC
-LIMIT 100;</t>
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
     sqf.file_name AS "File Name",
-    --sqf.file_category AS "File Category",
+    CASE
+        WHEN sqf.type = 'sequencing_file' THEN 'Sequencing'
+        ELSE sqf.type
+    END AS "File Category",
     COALESCE(sqf.file_description, '') AS "File Description",
     sqf.file_type AS "File Type",
     CASE     
-    WHEN sqf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        ROUND(sqf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-    WHEN sqf.file_size &gt;= 1024 * 1024 THEN 
-        ROUND(sqf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
-    WHEN sqf.file_size &gt;= 1024 THEN 
-        ROUND(sqf.file_size / 1024.0, 2) || ' KB' 
-    ELSE 
-        ROUND(sqf.file_size, 2) || ' Bytes' 
-END AS "File Size",
-    st.study_id AS "Study ID",
-    p.participant_id AS "Participant ID",
+        WHEN sqf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(sqf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN sqf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(sqf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN sqf.file_size &gt;= 1024 THEN 
+            ROUND(sqf.file_size / 1024.0, 2) || ' KB' 
+        ELSE 
+            ROUND(sqf.file_size, 2) || ' Bytes' 
+    END AS "File Size",
+    std.study AS "Study ID",
+    prt.participant_id AS "Participant ID",
     smp.sample_id AS "Sample ID",
     sqf.dcf_indexd_guid AS "GUID",
     sqf.md5sum AS "MD5sum",
     COALESCE(sqf.library_selection, '') AS "Library Selection",
-    COALESCE(sqf.library_source, '') AS "Library Source",
-    COALESCE(sqf.library_strategy, '') AS "Library Strategy"
+    COALESCE(sqf.library_source_material, '') AS "Library Source",
+    COALESCE(sqf.library_strategy, '') AS "Library Strategy",
+    COALESCE(sqf.library_source_molecule, '') AS "Library Source Molecule"
 FROM 
-    df_sequencing_file sqf
-LEFT JOIN 
-    df_sample smp ON sqf."sample.id" = smp.id
-LEFT JOIN 
-    df_participant p ON smp."participant.id" = p.id
-LEFT JOIN 
-    df_study st ON p."study.id" = st.id
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+JOIN 
+    df_sequencing_file sqf ON smp.id = sqf."sample.id"
 WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male'
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male'
+UNION
+SELECT DISTINCT
+    maf.file_name AS "File Name",
+    CASE
+        WHEN maf.type = 'methylation_array_file' THEN 'Methylation array'
+        ELSE maf.type
+    END AS "File Category",
+    COALESCE(maf.file_description, '') AS "File Description",
+    maf.file_type AS "File Type",
+    CASE     
+        WHEN maf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(maf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN maf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(maf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN maf.file_size &gt;= 1024 THEN 
+            ROUND(maf.file_size / 1024.0, 2) || ' KB' 
+        ELSE 
+            ROUND(maf.file_size, 2) || ' Bytes' 
+    END AS "File Size",
+    std.study AS "Study ID",
+    prt.participant_id AS "Participant ID",
+    smp.sample_id AS "Sample ID",
+    maf.dcf_indexd_guid AS "GUID",
+    maf.md5sum AS "MD5sum",
+    '' AS "Library Selection",
+    '' AS "Library Source",
+    '' AS "Library Strategy",
+    '' AS "Library Source Molecule"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+JOIN 
+    df_methylation_array_file maf ON smp.id = maf."sample.id"
+WHERE 
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male'
 ORDER BY 
     sqf.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT
-    COUNT(DISTINCT st.study_id) AS "Studies",
-    COUNT(DISTINCT p.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT sf.id) AS "Files"
+    <t>SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    std.study AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification"
 FROM 
-    df_participant p
-JOIN 
-    df_study st ON p."study.id" = st.id
-LEFT JOIN 
-    df_sample smp ON smp."participant.id" = p.id
-LEFT JOIN 
-    df_sequencing_file sf ON sf."sample.id" = smp.id
-LEFT JOIN 
-    df_methylation_array_file maf ON maf."sample.id" = smp.sample_id
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_publication pub ON std.id = pub."study.id"
+LEFT JOIN 
+    df_follow_up flw ON prt.id = flw."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+LEFT JOIN 
+    df_study_admin adm ON std.id = adm."study.id"
+LEFT JOIN 
+    df_study_personnel per ON std.id = per."study.id"
+LEFT JOIN 
+    df_study_funding fund ON std.id = fund."study.id"
+LEFT JOIN 
+    df_methylation_array_file maf ON smp.id = maf."sample.id"
+LEFT JOIN 
+    df_synonym syn ON prt.id = syn."participant.id"
+LEFT JOIN 
+    df_treatment trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
 WHERE 
-    st.study_id = 'phs002504' AND p.sex_at_birth = 'Male';</t>
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male' AND smp.sample_id IS NOT NULL
+ORDER BY 
+    smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant ID",
+    COALESCE(smp.sample_id, '') AS "Sample ID",
+    std.study AS "Study ID",
+    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
+    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
+    COALESCE(dgn.diagnosis_classification_system, '') AS "Diagnosis Classification System",
+    COALESCE(dgn.diagnosis_basis, '') AS "Diagnosis Basis",    
+    COALESCE(dgn.disease_phase, '') AS "Disease Phase",
+    COALESCE(CASE WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported' ELSE dgn.age_at_diagnosis END, 0) AS "Age at Diagnosis (days)",
+    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_publication pub ON std.id = pub."study.id"
+LEFT JOIN 
+    df_follow_up flw ON prt.id = flw."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+LEFT JOIN 
+    df_study_admin adm ON std.id = adm."study.id"
+LEFT JOIN 
+    df_study_personnel per ON std.id = per."study.id"
+LEFT JOIN 
+    df_study_funding fund ON std.id = fund."study.id"
+LEFT JOIN 
+    df_methylation_array_file maf ON smp.id = maf."sample.id"
+LEFT JOIN 
+    df_synonym syn ON prt.id = syn."participant.id"
+LEFT JOIN 
+    df_treatment trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+WHERE 
+    std.study = 'phs002504' AND prt.sex_at_birth = 'Male'
+ORDER BY 
+    prt.participant_id ASC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+    std.study_name AS "Study Name",
+    std.study AS "Study ID",
+    CONCAT(dgn.diagnosis, ' (', COUNT(DISTINCT dgn.diagnosis_id), ')') AS "Diagnosis (Top 5)",
+    dgn.anatomic_site AS "Diagnosis Anatomic Site (Top 5)",
+    COUNT(DISTINCT prt.participant_id) AS "Number of Participants"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_publication pub ON std.id = pub."study.id"
+WHERE 
+    std.study = 'phs002504' AND prt.sex_at_birth IN ('Male', 'Female', 'Unknown')
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -335,14 +428,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -674,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -703,38 +799,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="404" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -751,8 +847,8 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -764,7 +860,7 @@
       <c r="C8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-09-25-2024/Commons_Automation/InputFiles/CCDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/February/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6207A-D4F7-8543-93E0-EC7F515578C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC59644D-039C-4045-A90F-B31A456851F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42460" yWindow="-2660" windowWidth="30240" windowHeight="25920" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="30240" windowHeight="19500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -345,9 +344,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -428,14 +434,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,7 +838,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3"/>
@@ -860,7 +869,7 @@
       <c r="C8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002504_Sex-Male.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/February/Commons_Automation/InputFiles/CCDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-09-25-2024/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC59644D-039C-4045-A90F-B31A456851F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6207A-D4F7-8543-93E0-EC7F515578C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="30240" windowHeight="19500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-42460" yWindow="-2660" windowWidth="30240" windowHeight="25920" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -344,16 +345,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -434,17 +428,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,7 +829,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3"/>
@@ -869,7 +860,7 @@
       <c r="C8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
